--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841123.776493276</v>
+        <v>2839236.194976874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>104.300480373128</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.9124227879787</v>
       </c>
       <c r="E4" t="n">
-        <v>76.1895324087313</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>363.5687190723334</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>320.797539652425</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587375984</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>294.5526453824716</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>172.2075379833797</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>93.97955876895699</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>120.8530343211901</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>34.55149341717764</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>3.428172734271811</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092078</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>220.2803460863039</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>80.45677925364006</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>127.0811780945932</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>161.4046520073172</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.0862448584848</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>39.72583251028776</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692892</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.182375355301</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>924.2198584148889</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>565.9541598081385</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>180.1659072098942</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>173.2204064606908</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>159.2970023992817</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>159.2970023992817</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782189</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="C4" t="n">
-        <v>484.4236418782189</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="D4" t="n">
-        <v>334.3070024658831</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782189</v>
+        <v>70.01613615165607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1138.21025391148</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>769.2477369710684</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>769.2477369710684</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2373.111172177389</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.111172177389</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1999.645413916309</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1609.506081940498</v>
+        <v>1138.21025391148</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>525.0086166875648</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1280.556556803302</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>911.5940398628907</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1667.156396867424</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.846685011157</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1292.912319878357</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.912319878357</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W13" t="n">
-        <v>1003.495149841397</v>
+        <v>330.8254548799444</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.495149841397</v>
+        <v>330.8254548799444</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.495149841397</v>
+        <v>208.7516828383382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
         <v>247.6350999123426</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247856</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>960.6729410830968</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>705.98845287721</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>416.5712828402495</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402495</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>709.4512536188985</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>709.4512536188985</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118778</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118778</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.556330677105</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>770.4276918906634</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V28" t="n">
-        <v>770.4276918906634</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W28" t="n">
-        <v>770.4276918906634</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X28" t="n">
-        <v>542.438140992646</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.438140992646</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6470,13 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430016</v>
+        <v>439.5324299542181</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430016</v>
+        <v>326.357112307682</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430016</v>
+        <v>232.001338176717</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264621</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6628,13 +6628,13 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030872</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6710,16 +6710,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>488.2756279992598</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7360,22 +7360,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>582.1916992613351</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,16 +7646,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>231.9043177021526</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,52 +7804,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525406</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>272.8719470256808</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>104.6241510367946</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>134.4977453535109</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>381.373976065775</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>76.43196988338559</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>85.30006332127829</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299263</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970616</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>192.2577936296204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>97.7316190309047</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0639796010347</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.8091796643055</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>14.74113413690316</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.429309302733287</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338614</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>138.1278740984547</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>94.46638296379605</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>57.18000134477764</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.54247869489546</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>51.50487350772435</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
         <v>630574.3128851684</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
         <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843569</v>
+        <v>-193294.5438843568</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301875</v>
+        <v>396673.3353301877</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301876</v>
+        <v>396673.3353301877</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360322</v>
+        <v>-26195.44857957526</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232927</v>
+        <v>498964.5878973209</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232925</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.047023293</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.0470232931</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306999</v>
+        <v>322541.3687047277</v>
       </c>
       <c r="K6" t="n">
-        <v>456573.2069164642</v>
+        <v>456554.7131785299</v>
       </c>
       <c r="L6" t="n">
-        <v>490784.9021611684</v>
+        <v>490784.9021611683</v>
       </c>
       <c r="M6" t="n">
-        <v>366326.7937281982</v>
+        <v>366326.793728198</v>
       </c>
       <c r="N6" t="n">
-        <v>501127.8089620348</v>
+        <v>501127.8089620352</v>
       </c>
       <c r="O6" t="n">
-        <v>501127.8089620352</v>
+        <v>501127.8089620355</v>
       </c>
       <c r="P6" t="n">
-        <v>456965.2036591894</v>
+        <v>456965.2036591895</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47.63083587173321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>132.7030502302337</v>
       </c>
       <c r="E4" t="n">
-        <v>70.24443023783788</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.36165099992843</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.954718817709931</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.19271039829701</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>60.1303962382114</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359958</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>52.82756747470461</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>522.129651981705</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>415.0485280872609</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>444.9221224039771</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36446,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>663.7376783068831</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686864</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,7 +36847,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,13 +36920,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>227.0074084713248</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>418.4946367192911</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178656</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746128</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686864</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
